--- a/code/results_cellsMejorado/results_cec2017_30.xlsx
+++ b/code/results_cellsMejorado/results_cec2017_30.xlsx
@@ -582,94 +582,94 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>29220312</v>
+        <v>5878546.7</v>
       </c>
       <c r="E2">
-        <v>109333.4</v>
+        <v>42334.5</v>
       </c>
       <c r="F2">
-        <v>9946.360900000001</v>
+        <v>7608.987300000001</v>
       </c>
       <c r="G2">
-        <v>8.312208599999998</v>
+        <v>6.80982</v>
       </c>
       <c r="H2">
-        <v>18.073295</v>
+        <v>10.50056</v>
       </c>
       <c r="I2">
-        <v>3.5779107</v>
+        <v>2.0527604</v>
       </c>
       <c r="J2">
-        <v>42.153317</v>
+        <v>35.51974999999999</v>
       </c>
       <c r="K2">
-        <v>20.796615</v>
+        <v>16.806122</v>
       </c>
       <c r="L2">
-        <v>19.006696</v>
+        <v>10.9856631</v>
       </c>
       <c r="M2">
-        <v>561.04351</v>
+        <v>539.09449</v>
       </c>
       <c r="N2">
-        <v>44.76421800000001</v>
+        <v>42.446927</v>
       </c>
       <c r="O2">
-        <v>1964901.3</v>
+        <v>458614.7000000001</v>
       </c>
       <c r="P2">
-        <v>42798.251</v>
+        <v>13822.0588</v>
       </c>
       <c r="Q2">
-        <v>683.9960100000001</v>
+        <v>539.448982</v>
       </c>
       <c r="R2">
-        <v>1871.795054</v>
+        <v>645.13573</v>
       </c>
       <c r="S2">
-        <v>66.38736300000001</v>
+        <v>46.585707</v>
       </c>
       <c r="T2">
-        <v>33.39196099999999</v>
+        <v>15.504149</v>
       </c>
       <c r="U2">
-        <v>35353.49339999999</v>
+        <v>27062.441</v>
       </c>
       <c r="V2">
-        <v>2030.26401</v>
+        <v>1388.03942</v>
       </c>
       <c r="W2">
-        <v>35.058647</v>
+        <v>18.973864</v>
       </c>
       <c r="X2">
-        <v>131.24023</v>
+        <v>127.97204</v>
       </c>
       <c r="Y2">
-        <v>74.18148799999999</v>
+        <v>90.27913200000002</v>
       </c>
       <c r="Z2">
-        <v>322.9037300000001</v>
+        <v>314.62842</v>
       </c>
       <c r="AA2">
-        <v>165.38093</v>
+        <v>209.07846</v>
       </c>
       <c r="AB2">
-        <v>382.59901</v>
+        <v>364.3950800000001</v>
       </c>
       <c r="AC2">
-        <v>234.4182</v>
+        <v>276.65061</v>
       </c>
       <c r="AD2">
-        <v>401.10253</v>
+        <v>393.0960999999999</v>
       </c>
       <c r="AE2">
-        <v>369.51963</v>
+        <v>383.40212</v>
       </c>
       <c r="AF2">
-        <v>273.46629</v>
+        <v>275.78236</v>
       </c>
       <c r="AG2">
-        <v>27125.4392</v>
+        <v>48041.962</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -683,94 +683,94 @@
         <v>30</v>
       </c>
       <c r="D3">
-        <v>1550065530</v>
+        <v>3025864000</v>
       </c>
       <c r="E3">
-        <v>1.318859552419107E+29</v>
+        <v>4.537185E+28</v>
       </c>
       <c r="F3">
-        <v>228566.28</v>
+        <v>126908.6</v>
       </c>
       <c r="G3">
-        <v>311.57554</v>
+        <v>283.3072000000001</v>
       </c>
       <c r="H3">
-        <v>191.81318</v>
+        <v>223.2368999999999</v>
       </c>
       <c r="I3">
-        <v>14.230701</v>
+        <v>24.94008</v>
       </c>
       <c r="J3">
-        <v>342.86071</v>
+        <v>366.5801000000001</v>
       </c>
       <c r="K3">
-        <v>191.41969</v>
+        <v>204.0609</v>
       </c>
       <c r="L3">
-        <v>4472.322499999999</v>
+        <v>6921.377999999999</v>
       </c>
       <c r="M3">
-        <v>4901.3825</v>
+        <v>5808.771</v>
       </c>
       <c r="N3">
-        <v>10093.3498</v>
+        <v>8820.245999999999</v>
       </c>
       <c r="O3">
-        <v>247873290</v>
+        <v>544226400</v>
       </c>
       <c r="P3">
-        <v>398112560</v>
+        <v>605207800</v>
       </c>
       <c r="Q3">
-        <v>6823441.840000001</v>
+        <v>9349808</v>
       </c>
       <c r="R3">
-        <v>141266750</v>
+        <v>130215800</v>
       </c>
       <c r="S3">
-        <v>1817.99</v>
+        <v>2000.411</v>
       </c>
       <c r="T3">
-        <v>908.9697200000001</v>
+        <v>953.2683</v>
       </c>
       <c r="U3">
-        <v>11298631.5</v>
+        <v>8012047</v>
       </c>
       <c r="V3">
-        <v>93941194</v>
+        <v>226118600</v>
       </c>
       <c r="W3">
-        <v>841.7313799999999</v>
+        <v>1041.794</v>
       </c>
       <c r="X3">
-        <v>392.57309</v>
+        <v>421.0533999999999</v>
       </c>
       <c r="Y3">
-        <v>1535.50611</v>
+        <v>518.2227999999999</v>
       </c>
       <c r="Z3">
-        <v>554.4278400000001</v>
+        <v>578.1989000000001</v>
       </c>
       <c r="AA3">
-        <v>706.0426699999999</v>
+        <v>702.8745</v>
       </c>
       <c r="AB3">
-        <v>564.0644</v>
+        <v>724.183</v>
       </c>
       <c r="AC3">
-        <v>2257.1447</v>
+        <v>1522.526</v>
       </c>
       <c r="AD3">
-        <v>591.60037</v>
+        <v>608.3675999999999</v>
       </c>
       <c r="AE3">
-        <v>647.7148099999999</v>
+        <v>775.4121999999999</v>
       </c>
       <c r="AF3">
-        <v>1199.67334</v>
+        <v>1370.322</v>
       </c>
       <c r="AG3">
-        <v>64425883</v>
+        <v>11492700</v>
       </c>
     </row>
     <row r="4" spans="1:33">
@@ -784,94 +784,94 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>731539440</v>
+        <v>1236481000</v>
       </c>
       <c r="E4">
-        <v>2.73741589758E+24</v>
+        <v>1.411403E+25</v>
       </c>
       <c r="F4">
-        <v>228083.22</v>
+        <v>126697.8</v>
       </c>
       <c r="G4">
-        <v>213.61842</v>
+        <v>220.6835</v>
       </c>
       <c r="H4">
-        <v>162.20714</v>
+        <v>178.9755</v>
       </c>
       <c r="I4">
-        <v>8.845612099999999</v>
+        <v>12.51694</v>
       </c>
       <c r="J4">
-        <v>282.02975</v>
+        <v>289.6659</v>
       </c>
       <c r="K4">
-        <v>170.14164</v>
+        <v>178.2567</v>
       </c>
       <c r="L4">
-        <v>3782.8001</v>
+        <v>5072.112999999999</v>
       </c>
       <c r="M4">
-        <v>4507.173400000001</v>
+        <v>4272.271</v>
       </c>
       <c r="N4">
-        <v>8523.472700000002</v>
+        <v>4809.424</v>
       </c>
       <c r="O4">
-        <v>130091869</v>
+        <v>114084000</v>
       </c>
       <c r="P4">
-        <v>142684265</v>
+        <v>123316800</v>
       </c>
       <c r="Q4">
-        <v>5398515.35</v>
+        <v>1923170</v>
       </c>
       <c r="R4">
-        <v>65351396</v>
+        <v>99763130</v>
       </c>
       <c r="S4">
-        <v>1662.1843</v>
+        <v>1515.5</v>
       </c>
       <c r="T4">
-        <v>837.55615</v>
+        <v>780.8597</v>
       </c>
       <c r="U4">
-        <v>4692278.01</v>
+        <v>4529690</v>
       </c>
       <c r="V4">
-        <v>61660539</v>
+        <v>102256300</v>
       </c>
       <c r="W4">
-        <v>750.4466999999999</v>
+        <v>830.7358999999999</v>
       </c>
       <c r="X4">
-        <v>363.3004</v>
+        <v>369.6045</v>
       </c>
       <c r="Y4">
-        <v>1230.98708</v>
+        <v>361.5713999999999</v>
       </c>
       <c r="Z4">
-        <v>527.76964</v>
+        <v>498.1266999999999</v>
       </c>
       <c r="AA4">
-        <v>680.5299600000001</v>
+        <v>622.7154</v>
       </c>
       <c r="AB4">
-        <v>489.92532</v>
+        <v>483.9580999999999</v>
       </c>
       <c r="AC4">
-        <v>1789.4141</v>
+        <v>1068.132</v>
       </c>
       <c r="AD4">
-        <v>567.45879</v>
+        <v>566.2345000000001</v>
       </c>
       <c r="AE4">
-        <v>541.1609000000001</v>
+        <v>634.9267</v>
       </c>
       <c r="AF4">
-        <v>1027.7296</v>
+        <v>1234.243</v>
       </c>
       <c r="AG4">
-        <v>20246723</v>
+        <v>10357360</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -885,94 +885,94 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>542394120</v>
+        <v>544509700</v>
       </c>
       <c r="E5">
-        <v>1.801768521762E+23</v>
+        <v>2.911562E+23</v>
       </c>
       <c r="F5">
-        <v>228080.07</v>
+        <v>126693.4</v>
       </c>
       <c r="G5">
-        <v>179.64845</v>
+        <v>160.992</v>
       </c>
       <c r="H5">
-        <v>147.87812</v>
+        <v>154.7358</v>
       </c>
       <c r="I5">
-        <v>6.932463800000001</v>
+        <v>9.194203999999999</v>
       </c>
       <c r="J5">
-        <v>259.70949</v>
+        <v>274.437</v>
       </c>
       <c r="K5">
-        <v>162.97616</v>
+        <v>149.2412</v>
       </c>
       <c r="L5">
-        <v>3278.6664</v>
+        <v>2120.963</v>
       </c>
       <c r="M5">
-        <v>4235.3397</v>
+        <v>3261.991</v>
       </c>
       <c r="N5">
-        <v>8309.3634</v>
+        <v>4266.892999999999</v>
       </c>
       <c r="O5">
-        <v>107204193</v>
+        <v>89192670</v>
       </c>
       <c r="P5">
-        <v>115403762</v>
+        <v>88571770</v>
       </c>
       <c r="Q5">
-        <v>4287111.93</v>
+        <v>641180.2000000001</v>
       </c>
       <c r="R5">
-        <v>51374922</v>
+        <v>29837120</v>
       </c>
       <c r="S5">
-        <v>1617.8318</v>
+        <v>1463.154</v>
       </c>
       <c r="T5">
-        <v>775.1149600000001</v>
+        <v>744.5715</v>
       </c>
       <c r="U5">
-        <v>4339256.61</v>
+        <v>4529690</v>
       </c>
       <c r="V5">
-        <v>36960557</v>
+        <v>3657661</v>
       </c>
       <c r="W5">
-        <v>679.8262699999999</v>
+        <v>653.2255000000001</v>
       </c>
       <c r="X5">
-        <v>354.1836</v>
+        <v>350.4877999999999</v>
       </c>
       <c r="Y5">
-        <v>1161.73546</v>
+        <v>250.9953</v>
       </c>
       <c r="Z5">
-        <v>511.48536</v>
+        <v>492.7212000000001</v>
       </c>
       <c r="AA5">
-        <v>664.83122</v>
+        <v>615.5559000000001</v>
       </c>
       <c r="AB5">
-        <v>460.49748</v>
+        <v>461.5565</v>
       </c>
       <c r="AC5">
-        <v>1660.48166</v>
+        <v>803.8208999999999</v>
       </c>
       <c r="AD5">
-        <v>559.4063100000001</v>
+        <v>554.2252</v>
       </c>
       <c r="AE5">
-        <v>512.4133899999999</v>
+        <v>567.5626000000001</v>
       </c>
       <c r="AF5">
-        <v>964.81924</v>
+        <v>1117.578</v>
       </c>
       <c r="AG5">
-        <v>11885505.7</v>
+        <v>9067572</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -986,94 +986,94 @@
         <v>30</v>
       </c>
       <c r="D6">
-        <v>447758230</v>
+        <v>272850500</v>
       </c>
       <c r="E6">
-        <v>8.163616381E+21</v>
+        <v>1.070031E+21</v>
       </c>
       <c r="F6">
-        <v>228080.07</v>
+        <v>126029</v>
       </c>
       <c r="G6">
-        <v>158.78809</v>
+        <v>147.3346</v>
       </c>
       <c r="H6">
-        <v>138.39734</v>
+        <v>125.2387</v>
       </c>
       <c r="I6">
-        <v>5.664935999999999</v>
+        <v>5.864657</v>
       </c>
       <c r="J6">
-        <v>249.47685</v>
+        <v>224.7422999999999</v>
       </c>
       <c r="K6">
-        <v>150.5537</v>
+        <v>121.0064</v>
       </c>
       <c r="L6">
-        <v>2798.927700000001</v>
+        <v>1575.127</v>
       </c>
       <c r="M6">
-        <v>4017.285899999999</v>
+        <v>2606.457000000001</v>
       </c>
       <c r="N6">
-        <v>8004.617700000001</v>
+        <v>4147.016000000001</v>
       </c>
       <c r="O6">
-        <v>88006232</v>
+        <v>34320200</v>
       </c>
       <c r="P6">
-        <v>99959336</v>
+        <v>68445210</v>
       </c>
       <c r="Q6">
-        <v>3624428.2</v>
+        <v>641173.9000000001</v>
       </c>
       <c r="R6">
-        <v>31294179</v>
+        <v>21444770</v>
       </c>
       <c r="S6">
-        <v>1588.3313</v>
+        <v>1196.361</v>
       </c>
       <c r="T6">
-        <v>730.41601</v>
+        <v>629.8171000000001</v>
       </c>
       <c r="U6">
-        <v>2563015.21</v>
+        <v>3705182</v>
       </c>
       <c r="V6">
-        <v>29940022.6</v>
+        <v>3657656</v>
       </c>
       <c r="W6">
-        <v>665.1471299999999</v>
+        <v>269.6942</v>
       </c>
       <c r="X6">
-        <v>350.30416</v>
+        <v>316.1170000000001</v>
       </c>
       <c r="Y6">
-        <v>1108.88697</v>
+        <v>175.7351</v>
       </c>
       <c r="Z6">
-        <v>503.86146</v>
+        <v>481.8737</v>
       </c>
       <c r="AA6">
-        <v>655.8691699999999</v>
+        <v>603.7666</v>
       </c>
       <c r="AB6">
-        <v>449.23683</v>
+        <v>444.0522</v>
       </c>
       <c r="AC6">
-        <v>1577.9515</v>
+        <v>658.7848000000001</v>
       </c>
       <c r="AD6">
-        <v>551.8887099999999</v>
+        <v>542.6453</v>
       </c>
       <c r="AE6">
-        <v>496.07942</v>
+        <v>516.9678000000001</v>
       </c>
       <c r="AF6">
-        <v>930.83812</v>
+        <v>810.7864</v>
       </c>
       <c r="AG6">
-        <v>9616361.359999999</v>
+        <v>8816778</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -1087,94 +1087,94 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>370341710</v>
+        <v>53970570</v>
       </c>
       <c r="E7">
-        <v>8.068125783881199E+21</v>
+        <v>5.169322E+17</v>
       </c>
       <c r="F7">
-        <v>228080.07</v>
+        <v>123774.9</v>
       </c>
       <c r="G7">
-        <v>150.94986</v>
+        <v>130.3368</v>
       </c>
       <c r="H7">
-        <v>137.96719</v>
+        <v>110.459</v>
       </c>
       <c r="I7">
-        <v>5.538913299999999</v>
+        <v>3.404488</v>
       </c>
       <c r="J7">
-        <v>248.09718</v>
+        <v>163.1363</v>
       </c>
       <c r="K7">
-        <v>148.02425</v>
+        <v>98.98814000000002</v>
       </c>
       <c r="L7">
-        <v>2571.4294</v>
+        <v>839.635</v>
       </c>
       <c r="M7">
-        <v>4009.139799999999</v>
+        <v>2073.373</v>
       </c>
       <c r="N7">
-        <v>7966.6801</v>
+        <v>3957.900000000001</v>
       </c>
       <c r="O7">
-        <v>83065645</v>
+        <v>16924150</v>
       </c>
       <c r="P7">
-        <v>71464640</v>
+        <v>14308110</v>
       </c>
       <c r="Q7">
-        <v>3624428.2</v>
+        <v>600280.7000000001</v>
       </c>
       <c r="R7">
-        <v>25938316</v>
+        <v>886926.5</v>
       </c>
       <c r="S7">
-        <v>1564.2913</v>
+        <v>1059.548</v>
       </c>
       <c r="T7">
-        <v>718.02512</v>
+        <v>506.3132999999999</v>
       </c>
       <c r="U7">
-        <v>2381987.01</v>
+        <v>2902564</v>
       </c>
       <c r="V7">
-        <v>28648795.5</v>
+        <v>3275021</v>
       </c>
       <c r="W7">
-        <v>660.9414300000001</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X7">
-        <v>349.75112</v>
+        <v>291.4134</v>
       </c>
       <c r="Y7">
-        <v>1087.4979</v>
+        <v>138.059</v>
       </c>
       <c r="Z7">
-        <v>501.4954</v>
+        <v>449.5055000000001</v>
       </c>
       <c r="AA7">
-        <v>651.17192</v>
+        <v>585.2654999999999</v>
       </c>
       <c r="AB7">
-        <v>445.51034</v>
+        <v>417.5550999999999</v>
       </c>
       <c r="AC7">
-        <v>1545.64935</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD7">
-        <v>548.88869</v>
+        <v>535.1036000000001</v>
       </c>
       <c r="AE7">
-        <v>485.27733</v>
+        <v>460.0500000000001</v>
       </c>
       <c r="AF7">
-        <v>919.6857400000001</v>
+        <v>596.4683000000001</v>
       </c>
       <c r="AG7">
-        <v>7874628.87</v>
+        <v>2497343</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -1188,94 +1188,94 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>310267350</v>
+        <v>53970570</v>
       </c>
       <c r="E8">
-        <v>3.588724742119999E+19</v>
+        <v>3.2948728047E+17</v>
       </c>
       <c r="F8">
-        <v>134245.95</v>
+        <v>122739.37</v>
       </c>
       <c r="G8">
-        <v>139.46411</v>
+        <v>122.455265</v>
       </c>
       <c r="H8">
-        <v>132.52849</v>
+        <v>104.148758</v>
       </c>
       <c r="I8">
-        <v>5.4933244</v>
+        <v>3.0571443</v>
       </c>
       <c r="J8">
-        <v>229.17387</v>
+        <v>163.02185</v>
       </c>
       <c r="K8">
-        <v>131.24155</v>
+        <v>97.26479600000002</v>
       </c>
       <c r="L8">
-        <v>2071.224</v>
+        <v>682.44631</v>
       </c>
       <c r="M8">
-        <v>3850.619799999999</v>
+        <v>2073.373</v>
       </c>
       <c r="N8">
-        <v>4425.47015</v>
+        <v>2204.20035</v>
       </c>
       <c r="O8">
-        <v>60026056</v>
+        <v>15257617</v>
       </c>
       <c r="P8">
-        <v>60827839</v>
+        <v>13178608.2</v>
       </c>
       <c r="Q8">
-        <v>1048847.08</v>
+        <v>504445.1</v>
       </c>
       <c r="R8">
-        <v>14577682.5</v>
+        <v>886926.5</v>
       </c>
       <c r="S8">
-        <v>1456.31717</v>
+        <v>1028.55257</v>
       </c>
       <c r="T8">
-        <v>656.0513100000001</v>
+        <v>407.57223</v>
       </c>
       <c r="U8">
-        <v>2163959.01</v>
+        <v>1273156.81</v>
       </c>
       <c r="V8">
-        <v>25360879.5</v>
+        <v>3218481.5</v>
       </c>
       <c r="W8">
-        <v>633.72759</v>
+        <v>233.45341</v>
       </c>
       <c r="X8">
-        <v>341.3324700000001</v>
+        <v>290.79679</v>
       </c>
       <c r="Y8">
-        <v>209.61088</v>
+        <v>138.059</v>
       </c>
       <c r="Z8">
-        <v>497.9731099999999</v>
+        <v>448.4875700000001</v>
       </c>
       <c r="AA8">
-        <v>640.39256</v>
+        <v>585.2654999999999</v>
       </c>
       <c r="AB8">
-        <v>429.4858599999999</v>
+        <v>417.5134199999999</v>
       </c>
       <c r="AC8">
-        <v>1312.34256</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD8">
-        <v>547.4795200000001</v>
+        <v>534.4594</v>
       </c>
       <c r="AE8">
-        <v>475.88168</v>
+        <v>456.44863</v>
       </c>
       <c r="AF8">
-        <v>883.4921900000002</v>
+        <v>596.3193600000001</v>
       </c>
       <c r="AG8">
-        <v>6785508.67</v>
+        <v>2188570.58</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1289,94 +1289,94 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>294935360</v>
+        <v>53970570</v>
       </c>
       <c r="E9">
-        <v>1.62538670212E+19</v>
+        <v>3.2948728047E+17</v>
       </c>
       <c r="F9">
-        <v>130028.55</v>
+        <v>120310.45</v>
       </c>
       <c r="G9">
-        <v>136.68459</v>
+        <v>122.374085</v>
       </c>
       <c r="H9">
-        <v>126.64099</v>
+        <v>104.117558</v>
       </c>
       <c r="I9">
-        <v>5.0607374</v>
+        <v>3.0571443</v>
       </c>
       <c r="J9">
-        <v>217.86179</v>
+        <v>163.02185</v>
       </c>
       <c r="K9">
-        <v>119.06662</v>
+        <v>97.26479600000002</v>
       </c>
       <c r="L9">
-        <v>1033.77005</v>
+        <v>682.44631</v>
       </c>
       <c r="M9">
-        <v>3623.1698</v>
+        <v>2073.373</v>
       </c>
       <c r="N9">
-        <v>3869.79935</v>
+        <v>1244.34889</v>
       </c>
       <c r="O9">
-        <v>48320309</v>
+        <v>15257617</v>
       </c>
       <c r="P9">
-        <v>56283986</v>
+        <v>13178608.2</v>
       </c>
       <c r="Q9">
-        <v>1048847.08</v>
+        <v>457626.91</v>
       </c>
       <c r="R9">
-        <v>11077028.6</v>
+        <v>886926.5</v>
       </c>
       <c r="S9">
-        <v>1304.45197</v>
+        <v>1000.75866</v>
       </c>
       <c r="T9">
-        <v>451.45904</v>
+        <v>366.20277</v>
       </c>
       <c r="U9">
-        <v>1909128.71</v>
+        <v>1061131.99</v>
       </c>
       <c r="V9">
-        <v>19827632.5</v>
+        <v>3218481.5</v>
       </c>
       <c r="W9">
-        <v>559.01287</v>
+        <v>233.45341</v>
       </c>
       <c r="X9">
-        <v>319.98874</v>
+        <v>290.79679</v>
       </c>
       <c r="Y9">
-        <v>204.98639</v>
+        <v>138.059</v>
       </c>
       <c r="Z9">
-        <v>481.2586899999999</v>
+        <v>448.4875700000001</v>
       </c>
       <c r="AA9">
-        <v>621.75296</v>
+        <v>582.3182499999999</v>
       </c>
       <c r="AB9">
-        <v>424.07048</v>
+        <v>417.4791099999999</v>
       </c>
       <c r="AC9">
-        <v>990.16981</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD9">
-        <v>542.7636300000001</v>
+        <v>534.4594</v>
       </c>
       <c r="AE9">
-        <v>471.71386</v>
+        <v>456.3332</v>
       </c>
       <c r="AF9">
-        <v>820.3493599999999</v>
+        <v>596.3193600000001</v>
       </c>
       <c r="AG9">
-        <v>4808882.07</v>
+        <v>1710064.05</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1390,94 +1390,94 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>286159780</v>
+        <v>53970570</v>
       </c>
       <c r="E10">
-        <v>5.889411102199999E+18</v>
+        <v>3.2948728047E+17</v>
       </c>
       <c r="F10">
-        <v>124079.07</v>
+        <v>115595.067</v>
       </c>
       <c r="G10">
-        <v>132.65249</v>
+        <v>122.374085</v>
       </c>
       <c r="H10">
-        <v>124.15183</v>
+        <v>104.117558</v>
       </c>
       <c r="I10">
-        <v>5.0356546</v>
+        <v>3.0571443</v>
       </c>
       <c r="J10">
-        <v>216.64243</v>
+        <v>163.02185</v>
       </c>
       <c r="K10">
-        <v>117.89909</v>
+        <v>97.26479600000002</v>
       </c>
       <c r="L10">
-        <v>969.1555500000001</v>
+        <v>679.5418699999999</v>
       </c>
       <c r="M10">
-        <v>3511.3198</v>
+        <v>2073.373</v>
       </c>
       <c r="N10">
-        <v>1810.47065</v>
+        <v>1028.06289</v>
       </c>
       <c r="O10">
-        <v>46502783</v>
+        <v>15257617</v>
       </c>
       <c r="P10">
-        <v>52646026</v>
+        <v>13178608.2</v>
       </c>
       <c r="Q10">
-        <v>913807.9600000002</v>
+        <v>453738.9400000001</v>
       </c>
       <c r="R10">
-        <v>8718081.5</v>
+        <v>886926.5</v>
       </c>
       <c r="S10">
-        <v>1193.08777</v>
+        <v>1000.75866</v>
       </c>
       <c r="T10">
-        <v>430.46222</v>
+        <v>366.20277</v>
       </c>
       <c r="U10">
-        <v>1583595.11</v>
+        <v>980852.39</v>
       </c>
       <c r="V10">
-        <v>15779852.5</v>
+        <v>3208129.2</v>
       </c>
       <c r="W10">
-        <v>516.82349</v>
+        <v>233.45341</v>
       </c>
       <c r="X10">
-        <v>287.09732</v>
+        <v>290.79679</v>
       </c>
       <c r="Y10">
-        <v>202.73354</v>
+        <v>138.059</v>
       </c>
       <c r="Z10">
-        <v>453.80311</v>
+        <v>448.4875700000001</v>
       </c>
       <c r="AA10">
-        <v>618.9088600000001</v>
+        <v>582.3182499999999</v>
       </c>
       <c r="AB10">
-        <v>423.9733199999999</v>
+        <v>417.4791099999999</v>
       </c>
       <c r="AC10">
-        <v>713.6565700000001</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD10">
-        <v>540.58713</v>
+        <v>534.4594</v>
       </c>
       <c r="AE10">
-        <v>471.71386</v>
+        <v>456.3332</v>
       </c>
       <c r="AF10">
-        <v>792.31848</v>
+        <v>596.3193600000001</v>
       </c>
       <c r="AG10">
-        <v>4253468.07</v>
+        <v>1568968.05</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1491,94 +1491,94 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>272386830</v>
+        <v>53970570</v>
       </c>
       <c r="E11">
-        <v>5.699534402199999E+18</v>
+        <v>3.2948728047E+17</v>
       </c>
       <c r="F11">
-        <v>122114.31</v>
+        <v>111425.667</v>
       </c>
       <c r="G11">
-        <v>132.65249</v>
+        <v>122.374085</v>
       </c>
       <c r="H11">
-        <v>120.11663</v>
+        <v>104.117558</v>
       </c>
       <c r="I11">
-        <v>4.8452392</v>
+        <v>3.0571443</v>
       </c>
       <c r="J11">
-        <v>213.80693</v>
+        <v>163.02185</v>
       </c>
       <c r="K11">
-        <v>112.383192</v>
+        <v>97.26479600000002</v>
       </c>
       <c r="L11">
-        <v>866.88274</v>
+        <v>679.5418699999999</v>
       </c>
       <c r="M11">
-        <v>3495.915399999999</v>
+        <v>2073.373</v>
       </c>
       <c r="N11">
-        <v>1101.91874</v>
+        <v>971.2873900000002</v>
       </c>
       <c r="O11">
-        <v>42261656</v>
+        <v>15257617</v>
       </c>
       <c r="P11">
-        <v>45610997</v>
+        <v>13178608.2</v>
       </c>
       <c r="Q11">
-        <v>701617.86</v>
+        <v>447819.76</v>
       </c>
       <c r="R11">
-        <v>8077049.5</v>
+        <v>886926.5</v>
       </c>
       <c r="S11">
-        <v>1086.58769</v>
+        <v>1000.75866</v>
       </c>
       <c r="T11">
-        <v>362.71337</v>
+        <v>364.44744</v>
       </c>
       <c r="U11">
-        <v>1509782.61</v>
+        <v>946312.39</v>
       </c>
       <c r="V11">
-        <v>11024861.1</v>
+        <v>3208129.2</v>
       </c>
       <c r="W11">
-        <v>484.11067</v>
+        <v>233.45341</v>
       </c>
       <c r="X11">
-        <v>284.4170700000001</v>
+        <v>290.79679</v>
       </c>
       <c r="Y11">
-        <v>198.49614</v>
+        <v>138.059</v>
       </c>
       <c r="Z11">
-        <v>447.16873</v>
+        <v>448.4875700000001</v>
       </c>
       <c r="AA11">
-        <v>606.2963999999999</v>
+        <v>582.3182499999999</v>
       </c>
       <c r="AB11">
-        <v>419.84425</v>
+        <v>417.4791099999999</v>
       </c>
       <c r="AC11">
-        <v>713.2027800000001</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD11">
-        <v>538.5740600000001</v>
+        <v>534.4594</v>
       </c>
       <c r="AE11">
-        <v>468.92089</v>
+        <v>456.3332</v>
       </c>
       <c r="AF11">
-        <v>760.3900799999999</v>
+        <v>596.3193600000001</v>
       </c>
       <c r="AG11">
-        <v>4091895.27</v>
+        <v>1562346.35</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1592,94 +1592,94 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>272386830</v>
+        <v>53970570</v>
       </c>
       <c r="E12">
-        <v>5.699534402199999E+18</v>
+        <v>3.2948728047E+17</v>
       </c>
       <c r="F12">
-        <v>111939.848</v>
+        <v>110934.227</v>
       </c>
       <c r="G12">
-        <v>132.65249</v>
+        <v>122.374085</v>
       </c>
       <c r="H12">
-        <v>119.90988</v>
+        <v>104.117558</v>
       </c>
       <c r="I12">
-        <v>4.8452392</v>
+        <v>3.0571443</v>
       </c>
       <c r="J12">
-        <v>213.80693</v>
+        <v>163.02185</v>
       </c>
       <c r="K12">
-        <v>112.383192</v>
+        <v>97.26479600000002</v>
       </c>
       <c r="L12">
-        <v>866.88274</v>
+        <v>679.5418699999999</v>
       </c>
       <c r="M12">
-        <v>3495.915399999999</v>
+        <v>2073.373</v>
       </c>
       <c r="N12">
-        <v>1046.1693</v>
+        <v>971.2873900000002</v>
       </c>
       <c r="O12">
-        <v>42261656</v>
+        <v>15257617</v>
       </c>
       <c r="P12">
-        <v>45610997</v>
+        <v>13178608.2</v>
       </c>
       <c r="Q12">
-        <v>596602.4299999999</v>
+        <v>447819.76</v>
       </c>
       <c r="R12">
-        <v>8077049.5</v>
+        <v>886926.5</v>
       </c>
       <c r="S12">
-        <v>1078.39229</v>
+        <v>1000.75866</v>
       </c>
       <c r="T12">
-        <v>351.9373200000001</v>
+        <v>364.44744</v>
       </c>
       <c r="U12">
-        <v>1266798.09</v>
+        <v>946312.39</v>
       </c>
       <c r="V12">
-        <v>11024861.1</v>
+        <v>3208129.2</v>
       </c>
       <c r="W12">
-        <v>481.09486</v>
+        <v>233.45341</v>
       </c>
       <c r="X12">
-        <v>256.99582</v>
+        <v>290.79679</v>
       </c>
       <c r="Y12">
-        <v>198.49614</v>
+        <v>138.059</v>
       </c>
       <c r="Z12">
-        <v>436.5708500000001</v>
+        <v>448.4875700000001</v>
       </c>
       <c r="AA12">
-        <v>605.90831</v>
+        <v>582.3182499999999</v>
       </c>
       <c r="AB12">
-        <v>419.84425</v>
+        <v>417.4791099999999</v>
       </c>
       <c r="AC12">
-        <v>670.1601900000002</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD12">
-        <v>538.5740600000001</v>
+        <v>534.4594</v>
       </c>
       <c r="AE12">
-        <v>468.92089</v>
+        <v>456.3332</v>
       </c>
       <c r="AF12">
-        <v>758.8608999999999</v>
+        <v>596.3193600000001</v>
       </c>
       <c r="AG12">
-        <v>3376056.37</v>
+        <v>1562346.35</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1693,94 +1693,94 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>272386830</v>
+        <v>53970570</v>
       </c>
       <c r="E13">
-        <v>5.699534402199999E+18</v>
+        <v>3.2948728047E+17</v>
       </c>
       <c r="F13">
-        <v>111939.848</v>
+        <v>103880.121</v>
       </c>
       <c r="G13">
-        <v>132.65249</v>
+        <v>122.374085</v>
       </c>
       <c r="H13">
-        <v>119.69693</v>
+        <v>104.117558</v>
       </c>
       <c r="I13">
-        <v>4.8452392</v>
+        <v>3.0571443</v>
       </c>
       <c r="J13">
-        <v>213.73985</v>
+        <v>163.02185</v>
       </c>
       <c r="K13">
-        <v>111.304962</v>
+        <v>97.26479600000002</v>
       </c>
       <c r="L13">
-        <v>773.2258</v>
+        <v>679.5418699999999</v>
       </c>
       <c r="M13">
-        <v>3495.915399999999</v>
+        <v>2073.373</v>
       </c>
       <c r="N13">
-        <v>1019.2833</v>
+        <v>971.2873900000002</v>
       </c>
       <c r="O13">
-        <v>42261656</v>
+        <v>15257617</v>
       </c>
       <c r="P13">
-        <v>45610997</v>
+        <v>13178608.2</v>
       </c>
       <c r="Q13">
-        <v>577761.13</v>
+        <v>420582.96</v>
       </c>
       <c r="R13">
-        <v>7924100.6</v>
+        <v>886926.5</v>
       </c>
       <c r="S13">
-        <v>1078.39229</v>
+        <v>1000.75866</v>
       </c>
       <c r="T13">
-        <v>351.9373200000001</v>
+        <v>364.44744</v>
       </c>
       <c r="U13">
-        <v>1210539.89</v>
+        <v>946312.39</v>
       </c>
       <c r="V13">
-        <v>10509814.1</v>
+        <v>3208129.2</v>
       </c>
       <c r="W13">
-        <v>481.09486</v>
+        <v>233.45341</v>
       </c>
       <c r="X13">
-        <v>256.99582</v>
+        <v>290.79679</v>
       </c>
       <c r="Y13">
-        <v>198.49614</v>
+        <v>138.059</v>
       </c>
       <c r="Z13">
-        <v>436.5708500000001</v>
+        <v>448.4875700000001</v>
       </c>
       <c r="AA13">
-        <v>604.47543</v>
+        <v>582.3182499999999</v>
       </c>
       <c r="AB13">
-        <v>419.84425</v>
+        <v>417.4791099999999</v>
       </c>
       <c r="AC13">
-        <v>670.1601900000002</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD13">
-        <v>538.5740600000001</v>
+        <v>534.4594</v>
       </c>
       <c r="AE13">
-        <v>468.92089</v>
+        <v>456.3332</v>
       </c>
       <c r="AF13">
-        <v>756.5737499999999</v>
+        <v>596.3193600000001</v>
       </c>
       <c r="AG13">
-        <v>2693751.27</v>
+        <v>1562346.35</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1794,94 +1794,94 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>272386830</v>
+        <v>53970570</v>
       </c>
       <c r="E14">
-        <v>5.699534402199999E+18</v>
+        <v>3.2948728047E+17</v>
       </c>
       <c r="F14">
-        <v>106281.702</v>
+        <v>101749.338</v>
       </c>
       <c r="G14">
-        <v>132.65249</v>
+        <v>122.374085</v>
       </c>
       <c r="H14">
-        <v>119.69693</v>
+        <v>104.117558</v>
       </c>
       <c r="I14">
-        <v>4.8452392</v>
+        <v>3.0571443</v>
       </c>
       <c r="J14">
-        <v>213.73985</v>
+        <v>163.02185</v>
       </c>
       <c r="K14">
-        <v>111.304962</v>
+        <v>97.26479600000002</v>
       </c>
       <c r="L14">
-        <v>772.9562800000001</v>
+        <v>679.5418699999999</v>
       </c>
       <c r="M14">
-        <v>3495.915399999999</v>
+        <v>2073.373</v>
       </c>
       <c r="N14">
-        <v>1019.2833</v>
+        <v>971.2873900000002</v>
       </c>
       <c r="O14">
-        <v>42261656</v>
+        <v>15257617</v>
       </c>
       <c r="P14">
-        <v>45610997</v>
+        <v>13178608.2</v>
       </c>
       <c r="Q14">
-        <v>478473.6899999999</v>
+        <v>420582.96</v>
       </c>
       <c r="R14">
-        <v>7802708</v>
+        <v>886926.5</v>
       </c>
       <c r="S14">
-        <v>1078.39229</v>
+        <v>1000.75866</v>
       </c>
       <c r="T14">
-        <v>349.37595</v>
+        <v>364.44744</v>
       </c>
       <c r="U14">
-        <v>1210539.89</v>
+        <v>946312.39</v>
       </c>
       <c r="V14">
-        <v>10509814.1</v>
+        <v>3208129.2</v>
       </c>
       <c r="W14">
-        <v>473.17162</v>
+        <v>233.45341</v>
       </c>
       <c r="X14">
-        <v>256.99582</v>
+        <v>290.79679</v>
       </c>
       <c r="Y14">
-        <v>198.49614</v>
+        <v>138.059</v>
       </c>
       <c r="Z14">
-        <v>436.5708500000001</v>
+        <v>448.4875700000001</v>
       </c>
       <c r="AA14">
-        <v>604.47543</v>
+        <v>582.3182499999999</v>
       </c>
       <c r="AB14">
-        <v>419.84425</v>
+        <v>417.4791099999999</v>
       </c>
       <c r="AC14">
-        <v>670.1601900000002</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD14">
-        <v>538.5740600000001</v>
+        <v>534.4594</v>
       </c>
       <c r="AE14">
-        <v>468.92089</v>
+        <v>456.3332</v>
       </c>
       <c r="AF14">
-        <v>756.5737499999999</v>
+        <v>596.3193600000001</v>
       </c>
       <c r="AG14">
-        <v>2693751.27</v>
+        <v>1562346.35</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -1895,94 +1895,94 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>272386830</v>
+        <v>53970570</v>
       </c>
       <c r="E15">
-        <v>5.690386402199999E+18</v>
+        <v>3.2948728047E+17</v>
       </c>
       <c r="F15">
-        <v>103574.312</v>
+        <v>101749.338</v>
       </c>
       <c r="G15">
-        <v>132.65249</v>
+        <v>122.374085</v>
       </c>
       <c r="H15">
-        <v>119.69693</v>
+        <v>104.117558</v>
       </c>
       <c r="I15">
-        <v>4.8452392</v>
+        <v>3.0571443</v>
       </c>
       <c r="J15">
-        <v>213.73985</v>
+        <v>163.02185</v>
       </c>
       <c r="K15">
-        <v>111.304962</v>
+        <v>97.26479600000002</v>
       </c>
       <c r="L15">
-        <v>772.9562800000001</v>
+        <v>679.5418699999999</v>
       </c>
       <c r="M15">
-        <v>3495.915399999999</v>
+        <v>2073.373</v>
       </c>
       <c r="N15">
-        <v>1011.09</v>
+        <v>971.2873900000002</v>
       </c>
       <c r="O15">
-        <v>42261656</v>
+        <v>15257617</v>
       </c>
       <c r="P15">
-        <v>45610997</v>
+        <v>13178608.2</v>
       </c>
       <c r="Q15">
-        <v>466804.4799999999</v>
+        <v>420582.96</v>
       </c>
       <c r="R15">
-        <v>7802708</v>
+        <v>886926.5</v>
       </c>
       <c r="S15">
-        <v>1078.39229</v>
+        <v>1000.75866</v>
       </c>
       <c r="T15">
-        <v>338.23037</v>
+        <v>364.44744</v>
       </c>
       <c r="U15">
-        <v>1123797.76</v>
+        <v>946312.39</v>
       </c>
       <c r="V15">
-        <v>10444793.1</v>
+        <v>3208129.2</v>
       </c>
       <c r="W15">
-        <v>473.17162</v>
+        <v>233.45341</v>
       </c>
       <c r="X15">
-        <v>256.99582</v>
+        <v>290.79679</v>
       </c>
       <c r="Y15">
-        <v>198.49614</v>
+        <v>138.059</v>
       </c>
       <c r="Z15">
-        <v>436.5708500000001</v>
+        <v>448.4875700000001</v>
       </c>
       <c r="AA15">
-        <v>604.47543</v>
+        <v>582.3182499999999</v>
       </c>
       <c r="AB15">
-        <v>419.84425</v>
+        <v>417.4791099999999</v>
       </c>
       <c r="AC15">
-        <v>670.1601900000002</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD15">
-        <v>538.5740600000001</v>
+        <v>534.4594</v>
       </c>
       <c r="AE15">
-        <v>468.92089</v>
+        <v>456.3332</v>
       </c>
       <c r="AF15">
-        <v>756.5737499999999</v>
+        <v>596.3193600000001</v>
       </c>
       <c r="AG15">
-        <v>2693751.27</v>
+        <v>1562346.35</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -1996,94 +1996,94 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>272386830</v>
+        <v>53970570</v>
       </c>
       <c r="E16">
-        <v>5.690386402199999E+18</v>
+        <v>3.2948728047E+17</v>
       </c>
       <c r="F16">
-        <v>102344.562</v>
+        <v>99329.14400000001</v>
       </c>
       <c r="G16">
-        <v>132.65249</v>
+        <v>122.374085</v>
       </c>
       <c r="H16">
-        <v>119.69693</v>
+        <v>104.117558</v>
       </c>
       <c r="I16">
-        <v>4.8452392</v>
+        <v>3.0571443</v>
       </c>
       <c r="J16">
-        <v>213.73985</v>
+        <v>163.02185</v>
       </c>
       <c r="K16">
-        <v>111.304962</v>
+        <v>97.26479600000002</v>
       </c>
       <c r="L16">
-        <v>772.9562800000001</v>
+        <v>679.5418699999999</v>
       </c>
       <c r="M16">
-        <v>3495.915399999999</v>
+        <v>2073.373</v>
       </c>
       <c r="N16">
-        <v>1011.09</v>
+        <v>971.2873900000002</v>
       </c>
       <c r="O16">
-        <v>42261656</v>
+        <v>15257617</v>
       </c>
       <c r="P16">
-        <v>45610997</v>
+        <v>13178608.2</v>
       </c>
       <c r="Q16">
-        <v>362255.35</v>
+        <v>420582.96</v>
       </c>
       <c r="R16">
-        <v>7802708</v>
+        <v>886926.5</v>
       </c>
       <c r="S16">
-        <v>1078.39229</v>
+        <v>1000.75866</v>
       </c>
       <c r="T16">
-        <v>322.1565200000001</v>
+        <v>364.44744</v>
       </c>
       <c r="U16">
-        <v>1115853.12</v>
+        <v>946312.39</v>
       </c>
       <c r="V16">
-        <v>10444793.1</v>
+        <v>3208129.2</v>
       </c>
       <c r="W16">
-        <v>472.27617</v>
+        <v>233.45341</v>
       </c>
       <c r="X16">
-        <v>253.2834</v>
+        <v>290.79679</v>
       </c>
       <c r="Y16">
-        <v>198.49614</v>
+        <v>138.059</v>
       </c>
       <c r="Z16">
-        <v>428.9448</v>
+        <v>448.4875700000001</v>
       </c>
       <c r="AA16">
-        <v>549.6827999999999</v>
+        <v>582.3182499999999</v>
       </c>
       <c r="AB16">
-        <v>419.84425</v>
+        <v>417.4791099999999</v>
       </c>
       <c r="AC16">
-        <v>670.1601900000002</v>
+        <v>457.4340000000001</v>
       </c>
       <c r="AD16">
-        <v>538.5740600000001</v>
+        <v>534.4594</v>
       </c>
       <c r="AE16">
-        <v>468.92089</v>
+        <v>456.3332</v>
       </c>
       <c r="AF16">
-        <v>756.5737499999999</v>
+        <v>596.3193600000001</v>
       </c>
       <c r="AG16">
-        <v>2693751.27</v>
+        <v>1562346.35</v>
       </c>
     </row>
   </sheetData>

--- a/code/results_cellsMejorado/results_cec2017_30.xlsx
+++ b/code/results_cellsMejorado/results_cec2017_30.xlsx
@@ -582,94 +582,94 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>5878546.7</v>
+        <v>5776764.6</v>
       </c>
       <c r="E2">
-        <v>42334.5</v>
+        <v>47266.3</v>
       </c>
       <c r="F2">
-        <v>7608.987300000001</v>
+        <v>8685.637900000002</v>
       </c>
       <c r="G2">
-        <v>6.80982</v>
+        <v>5.754294700000001</v>
       </c>
       <c r="H2">
-        <v>10.50056</v>
+        <v>10.3535155</v>
       </c>
       <c r="I2">
-        <v>2.0527604</v>
+        <v>1.7854613</v>
       </c>
       <c r="J2">
-        <v>35.51974999999999</v>
+        <v>34.40019599999999</v>
       </c>
       <c r="K2">
-        <v>16.806122</v>
+        <v>16.396242</v>
       </c>
       <c r="L2">
-        <v>10.9856631</v>
+        <v>10.4402165</v>
       </c>
       <c r="M2">
-        <v>539.09449</v>
+        <v>381.348126</v>
       </c>
       <c r="N2">
-        <v>42.446927</v>
+        <v>35.816368</v>
       </c>
       <c r="O2">
         <v>458614.7000000001</v>
       </c>
       <c r="P2">
-        <v>13822.0588</v>
+        <v>23994.5295</v>
       </c>
       <c r="Q2">
-        <v>539.448982</v>
+        <v>460.37185</v>
       </c>
       <c r="R2">
-        <v>645.13573</v>
+        <v>861.2638199999999</v>
       </c>
       <c r="S2">
-        <v>46.585707</v>
+        <v>45.100607</v>
       </c>
       <c r="T2">
-        <v>15.504149</v>
+        <v>16.56282</v>
       </c>
       <c r="U2">
-        <v>27062.441</v>
+        <v>21814.2201</v>
       </c>
       <c r="V2">
-        <v>1388.03942</v>
+        <v>593.9299800000001</v>
       </c>
       <c r="W2">
-        <v>18.973864</v>
+        <v>18.967324</v>
       </c>
       <c r="X2">
-        <v>127.97204</v>
+        <v>118.58722</v>
       </c>
       <c r="Y2">
-        <v>90.27913200000002</v>
+        <v>69.65235199999999</v>
       </c>
       <c r="Z2">
-        <v>314.62842</v>
+        <v>320.15789</v>
       </c>
       <c r="AA2">
-        <v>209.07846</v>
+        <v>156.57514</v>
       </c>
       <c r="AB2">
-        <v>364.3950800000001</v>
+        <v>352.12046</v>
       </c>
       <c r="AC2">
-        <v>276.65061</v>
+        <v>202.888319</v>
       </c>
       <c r="AD2">
-        <v>393.0960999999999</v>
+        <v>392.9869199999999</v>
       </c>
       <c r="AE2">
-        <v>383.40212</v>
+        <v>331.1068750000001</v>
       </c>
       <c r="AF2">
-        <v>275.78236</v>
+        <v>276.35072</v>
       </c>
       <c r="AG2">
-        <v>48041.962</v>
+        <v>28409.4398</v>
       </c>
     </row>
     <row r="3" spans="1:33">
@@ -1191,91 +1191,91 @@
         <v>53970570</v>
       </c>
       <c r="E8">
-        <v>3.2948728047E+17</v>
+        <v>5.169322E+17</v>
       </c>
       <c r="F8">
-        <v>122739.37</v>
+        <v>119825.19</v>
       </c>
       <c r="G8">
-        <v>122.455265</v>
+        <v>129.9786</v>
       </c>
       <c r="H8">
-        <v>104.148758</v>
+        <v>110.459</v>
       </c>
       <c r="I8">
-        <v>3.0571443</v>
+        <v>3.3970892</v>
       </c>
       <c r="J8">
-        <v>163.02185</v>
+        <v>163.1363</v>
       </c>
       <c r="K8">
-        <v>97.26479600000002</v>
+        <v>98.98814000000002</v>
       </c>
       <c r="L8">
-        <v>682.44631</v>
+        <v>769.9158100000002</v>
       </c>
       <c r="M8">
         <v>2073.373</v>
       </c>
       <c r="N8">
-        <v>2204.20035</v>
+        <v>1573.55194</v>
       </c>
       <c r="O8">
-        <v>15257617</v>
+        <v>16924150</v>
       </c>
       <c r="P8">
-        <v>13178608.2</v>
+        <v>14308110</v>
       </c>
       <c r="Q8">
-        <v>504445.1</v>
+        <v>562245.6900000001</v>
       </c>
       <c r="R8">
         <v>886926.5</v>
       </c>
       <c r="S8">
-        <v>1028.55257</v>
+        <v>1043.57639</v>
       </c>
       <c r="T8">
-        <v>407.57223</v>
+        <v>465.08145</v>
       </c>
       <c r="U8">
-        <v>1273156.81</v>
+        <v>1461188.72</v>
       </c>
       <c r="V8">
-        <v>3218481.5</v>
+        <v>3275021</v>
       </c>
       <c r="W8">
-        <v>233.45341</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X8">
-        <v>290.79679</v>
+        <v>284.84155</v>
       </c>
       <c r="Y8">
         <v>138.059</v>
       </c>
       <c r="Z8">
-        <v>448.4875700000001</v>
+        <v>442.52975</v>
       </c>
       <c r="AA8">
         <v>585.2654999999999</v>
       </c>
       <c r="AB8">
-        <v>417.5134199999999</v>
+        <v>417.5550999999999</v>
       </c>
       <c r="AC8">
         <v>457.4340000000001</v>
       </c>
       <c r="AD8">
-        <v>534.4594</v>
+        <v>532.9251300000001</v>
       </c>
       <c r="AE8">
-        <v>456.44863</v>
+        <v>460.0500000000001</v>
       </c>
       <c r="AF8">
-        <v>596.3193600000001</v>
+        <v>596.4683000000001</v>
       </c>
       <c r="AG8">
-        <v>2188570.58</v>
+        <v>1966068.8</v>
       </c>
     </row>
     <row r="9" spans="1:33">
@@ -1292,91 +1292,91 @@
         <v>53970570</v>
       </c>
       <c r="E9">
-        <v>3.2948728047E+17</v>
+        <v>5.169322E+17</v>
       </c>
       <c r="F9">
-        <v>120310.45</v>
+        <v>107448.262</v>
       </c>
       <c r="G9">
-        <v>122.374085</v>
+        <v>129.9786</v>
       </c>
       <c r="H9">
-        <v>104.117558</v>
+        <v>110.459</v>
       </c>
       <c r="I9">
-        <v>3.0571443</v>
+        <v>3.3970892</v>
       </c>
       <c r="J9">
-        <v>163.02185</v>
+        <v>163.1363</v>
       </c>
       <c r="K9">
-        <v>97.26479600000002</v>
+        <v>98.98814000000002</v>
       </c>
       <c r="L9">
-        <v>682.44631</v>
+        <v>769.9158100000002</v>
       </c>
       <c r="M9">
         <v>2073.373</v>
       </c>
       <c r="N9">
-        <v>1244.34889</v>
+        <v>1088.93045</v>
       </c>
       <c r="O9">
-        <v>15257617</v>
+        <v>16924150</v>
       </c>
       <c r="P9">
-        <v>13178608.2</v>
+        <v>14308110</v>
       </c>
       <c r="Q9">
-        <v>457626.91</v>
+        <v>562245.6900000001</v>
       </c>
       <c r="R9">
         <v>886926.5</v>
       </c>
       <c r="S9">
-        <v>1000.75866</v>
+        <v>1043.57639</v>
       </c>
       <c r="T9">
-        <v>366.20277</v>
+        <v>465.08145</v>
       </c>
       <c r="U9">
-        <v>1061131.99</v>
+        <v>1324146.42</v>
       </c>
       <c r="V9">
-        <v>3218481.5</v>
+        <v>3275021</v>
       </c>
       <c r="W9">
-        <v>233.45341</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X9">
-        <v>290.79679</v>
+        <v>268.5878</v>
       </c>
       <c r="Y9">
         <v>138.059</v>
       </c>
       <c r="Z9">
-        <v>448.4875700000001</v>
+        <v>442.52975</v>
       </c>
       <c r="AA9">
-        <v>582.3182499999999</v>
+        <v>581.3149999999999</v>
       </c>
       <c r="AB9">
-        <v>417.4791099999999</v>
+        <v>417.5550999999999</v>
       </c>
       <c r="AC9">
         <v>457.4340000000001</v>
       </c>
       <c r="AD9">
-        <v>534.4594</v>
+        <v>532.6673500000001</v>
       </c>
       <c r="AE9">
-        <v>456.3332</v>
+        <v>460.0500000000001</v>
       </c>
       <c r="AF9">
-        <v>596.3193600000001</v>
+        <v>596.4683000000001</v>
       </c>
       <c r="AG9">
-        <v>1710064.05</v>
+        <v>1966068.8</v>
       </c>
     </row>
     <row r="10" spans="1:33">
@@ -1393,91 +1393,91 @@
         <v>53970570</v>
       </c>
       <c r="E10">
-        <v>3.2948728047E+17</v>
+        <v>5.169322E+17</v>
       </c>
       <c r="F10">
-        <v>115595.067</v>
+        <v>102988.568</v>
       </c>
       <c r="G10">
-        <v>122.374085</v>
+        <v>129.9786</v>
       </c>
       <c r="H10">
-        <v>104.117558</v>
+        <v>110.459</v>
       </c>
       <c r="I10">
-        <v>3.0571443</v>
+        <v>3.3970892</v>
       </c>
       <c r="J10">
-        <v>163.02185</v>
+        <v>163.1363</v>
       </c>
       <c r="K10">
-        <v>97.26479600000002</v>
+        <v>98.98814000000002</v>
       </c>
       <c r="L10">
-        <v>679.5418699999999</v>
+        <v>769.9158100000002</v>
       </c>
       <c r="M10">
         <v>2073.373</v>
       </c>
       <c r="N10">
-        <v>1028.06289</v>
+        <v>1088.93045</v>
       </c>
       <c r="O10">
-        <v>15257617</v>
+        <v>16924150</v>
       </c>
       <c r="P10">
-        <v>13178608.2</v>
+        <v>14308110</v>
       </c>
       <c r="Q10">
-        <v>453738.9400000001</v>
+        <v>521672.66</v>
       </c>
       <c r="R10">
         <v>886926.5</v>
       </c>
       <c r="S10">
-        <v>1000.75866</v>
+        <v>1043.57639</v>
       </c>
       <c r="T10">
-        <v>366.20277</v>
+        <v>465.08145</v>
       </c>
       <c r="U10">
-        <v>980852.39</v>
+        <v>1260153.72</v>
       </c>
       <c r="V10">
-        <v>3208129.2</v>
+        <v>3275021</v>
       </c>
       <c r="W10">
-        <v>233.45341</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X10">
-        <v>290.79679</v>
+        <v>267.82155</v>
       </c>
       <c r="Y10">
         <v>138.059</v>
       </c>
       <c r="Z10">
-        <v>448.4875700000001</v>
+        <v>442.52975</v>
       </c>
       <c r="AA10">
-        <v>582.3182499999999</v>
+        <v>581.3149999999999</v>
       </c>
       <c r="AB10">
-        <v>417.4791099999999</v>
+        <v>417.5550999999999</v>
       </c>
       <c r="AC10">
         <v>457.4340000000001</v>
       </c>
       <c r="AD10">
-        <v>534.4594</v>
+        <v>532.6673500000001</v>
       </c>
       <c r="AE10">
-        <v>456.3332</v>
+        <v>460.0500000000001</v>
       </c>
       <c r="AF10">
-        <v>596.3193600000001</v>
+        <v>596.4683000000001</v>
       </c>
       <c r="AG10">
-        <v>1568968.05</v>
+        <v>1966068.8</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1494,91 +1494,91 @@
         <v>53970570</v>
       </c>
       <c r="E11">
-        <v>3.2948728047E+17</v>
+        <v>5.169322E+17</v>
       </c>
       <c r="F11">
-        <v>111425.667</v>
+        <v>102988.568</v>
       </c>
       <c r="G11">
-        <v>122.374085</v>
+        <v>129.9786</v>
       </c>
       <c r="H11">
-        <v>104.117558</v>
+        <v>110.459</v>
       </c>
       <c r="I11">
-        <v>3.0571443</v>
+        <v>3.3970892</v>
       </c>
       <c r="J11">
-        <v>163.02185</v>
+        <v>163.1363</v>
       </c>
       <c r="K11">
-        <v>97.26479600000002</v>
+        <v>98.98814000000002</v>
       </c>
       <c r="L11">
-        <v>679.5418699999999</v>
+        <v>769.9158100000002</v>
       </c>
       <c r="M11">
         <v>2073.373</v>
       </c>
       <c r="N11">
-        <v>971.2873900000002</v>
+        <v>1022.12845</v>
       </c>
       <c r="O11">
-        <v>15257617</v>
+        <v>16924150</v>
       </c>
       <c r="P11">
-        <v>13178608.2</v>
+        <v>14308110</v>
       </c>
       <c r="Q11">
-        <v>447819.76</v>
+        <v>502639.8199999999</v>
       </c>
       <c r="R11">
         <v>886926.5</v>
       </c>
       <c r="S11">
-        <v>1000.75866</v>
+        <v>1043.57639</v>
       </c>
       <c r="T11">
-        <v>364.44744</v>
+        <v>450.2889099999999</v>
       </c>
       <c r="U11">
-        <v>946312.39</v>
+        <v>1143106.52</v>
       </c>
       <c r="V11">
-        <v>3208129.2</v>
+        <v>3275021</v>
       </c>
       <c r="W11">
-        <v>233.45341</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X11">
-        <v>290.79679</v>
+        <v>267.82155</v>
       </c>
       <c r="Y11">
         <v>138.059</v>
       </c>
       <c r="Z11">
-        <v>448.4875700000001</v>
+        <v>442.52975</v>
       </c>
       <c r="AA11">
-        <v>582.3182499999999</v>
+        <v>577.9117999999999</v>
       </c>
       <c r="AB11">
-        <v>417.4791099999999</v>
+        <v>417.5550999999999</v>
       </c>
       <c r="AC11">
         <v>457.4340000000001</v>
       </c>
       <c r="AD11">
-        <v>534.4594</v>
+        <v>532.6673500000001</v>
       </c>
       <c r="AE11">
-        <v>456.3332</v>
+        <v>460.0500000000001</v>
       </c>
       <c r="AF11">
-        <v>596.3193600000001</v>
+        <v>596.4683000000001</v>
       </c>
       <c r="AG11">
-        <v>1562346.35</v>
+        <v>1966068.8</v>
       </c>
     </row>
     <row r="12" spans="1:33">
@@ -1595,91 +1595,91 @@
         <v>53970570</v>
       </c>
       <c r="E12">
-        <v>3.2948728047E+17</v>
+        <v>5.169322E+17</v>
       </c>
       <c r="F12">
-        <v>110934.227</v>
+        <v>102649.728</v>
       </c>
       <c r="G12">
-        <v>122.374085</v>
+        <v>129.82063</v>
       </c>
       <c r="H12">
-        <v>104.117558</v>
+        <v>110.459</v>
       </c>
       <c r="I12">
-        <v>3.0571443</v>
+        <v>3.3970892</v>
       </c>
       <c r="J12">
-        <v>163.02185</v>
+        <v>163.1363</v>
       </c>
       <c r="K12">
-        <v>97.26479600000002</v>
+        <v>98.98814000000002</v>
       </c>
       <c r="L12">
-        <v>679.5418699999999</v>
+        <v>759.0237600000002</v>
       </c>
       <c r="M12">
         <v>2073.373</v>
       </c>
       <c r="N12">
-        <v>971.2873900000002</v>
+        <v>777.00721</v>
       </c>
       <c r="O12">
-        <v>15257617</v>
+        <v>16924150</v>
       </c>
       <c r="P12">
-        <v>13178608.2</v>
+        <v>14308110</v>
       </c>
       <c r="Q12">
-        <v>447819.76</v>
+        <v>468407.3099999999</v>
       </c>
       <c r="R12">
         <v>886926.5</v>
       </c>
       <c r="S12">
-        <v>1000.75866</v>
+        <v>1026.64009</v>
       </c>
       <c r="T12">
-        <v>364.44744</v>
+        <v>433.79902</v>
       </c>
       <c r="U12">
-        <v>946312.39</v>
+        <v>875872.6300000001</v>
       </c>
       <c r="V12">
-        <v>3208129.2</v>
+        <v>3275021</v>
       </c>
       <c r="W12">
-        <v>233.45341</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X12">
-        <v>290.79679</v>
+        <v>259.49258</v>
       </c>
       <c r="Y12">
         <v>138.059</v>
       </c>
       <c r="Z12">
-        <v>448.4875700000001</v>
+        <v>439.08542</v>
       </c>
       <c r="AA12">
-        <v>582.3182499999999</v>
+        <v>552.3057699999999</v>
       </c>
       <c r="AB12">
-        <v>417.4791099999999</v>
+        <v>417.5550999999999</v>
       </c>
       <c r="AC12">
         <v>457.4340000000001</v>
       </c>
       <c r="AD12">
-        <v>534.4594</v>
+        <v>532.6673500000001</v>
       </c>
       <c r="AE12">
-        <v>456.3332</v>
+        <v>460.0500000000001</v>
       </c>
       <c r="AF12">
-        <v>596.3193600000001</v>
+        <v>596.4683000000001</v>
       </c>
       <c r="AG12">
-        <v>1562346.35</v>
+        <v>1966068.8</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1693,94 +1693,94 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>53970570</v>
+        <v>49544767</v>
       </c>
       <c r="E13">
-        <v>3.2948728047E+17</v>
+        <v>7.874086532E+16</v>
       </c>
       <c r="F13">
-        <v>103880.121</v>
+        <v>102649.728</v>
       </c>
       <c r="G13">
-        <v>122.374085</v>
+        <v>113.269598</v>
       </c>
       <c r="H13">
-        <v>104.117558</v>
+        <v>89.31593699999999</v>
       </c>
       <c r="I13">
-        <v>3.0571443</v>
+        <v>2.8536785</v>
       </c>
       <c r="J13">
-        <v>163.02185</v>
+        <v>161.83235</v>
       </c>
       <c r="K13">
-        <v>97.26479600000002</v>
+        <v>94.115247</v>
       </c>
       <c r="L13">
-        <v>679.5418699999999</v>
+        <v>629.0737800000002</v>
       </c>
       <c r="M13">
         <v>2073.373</v>
       </c>
       <c r="N13">
-        <v>971.2873900000002</v>
+        <v>675.7729</v>
       </c>
       <c r="O13">
-        <v>15257617</v>
+        <v>12420254.2</v>
       </c>
       <c r="P13">
-        <v>13178608.2</v>
+        <v>11389908.3</v>
       </c>
       <c r="Q13">
-        <v>420582.96</v>
+        <v>425874.9199999999</v>
       </c>
       <c r="R13">
-        <v>886926.5</v>
+        <v>806677.12</v>
       </c>
       <c r="S13">
-        <v>1000.75866</v>
+        <v>934.3108900000001</v>
       </c>
       <c r="T13">
-        <v>364.44744</v>
+        <v>373.49103</v>
       </c>
       <c r="U13">
-        <v>946312.39</v>
+        <v>830219.8099999999</v>
       </c>
       <c r="V13">
-        <v>3208129.2</v>
+        <v>2568815</v>
       </c>
       <c r="W13">
-        <v>233.45341</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X13">
-        <v>290.79679</v>
+        <v>257.34647</v>
       </c>
       <c r="Y13">
-        <v>138.059</v>
+        <v>137.92548</v>
       </c>
       <c r="Z13">
-        <v>448.4875700000001</v>
+        <v>432.9448100000001</v>
       </c>
       <c r="AA13">
-        <v>582.3182499999999</v>
+        <v>542.5170900000001</v>
       </c>
       <c r="AB13">
-        <v>417.4791099999999</v>
+        <v>412.32649</v>
       </c>
       <c r="AC13">
-        <v>457.4340000000001</v>
+        <v>436.9832200000001</v>
       </c>
       <c r="AD13">
-        <v>534.4594</v>
+        <v>529.3287200000001</v>
       </c>
       <c r="AE13">
-        <v>456.3332</v>
+        <v>455.3894200000001</v>
       </c>
       <c r="AF13">
-        <v>596.3193600000001</v>
+        <v>596.3608600000001</v>
       </c>
       <c r="AG13">
-        <v>1562346.35</v>
+        <v>1508862.02</v>
       </c>
     </row>
     <row r="14" spans="1:33">
@@ -1794,94 +1794,94 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <v>53970570</v>
+        <v>47581786</v>
       </c>
       <c r="E14">
-        <v>3.2948728047E+17</v>
+        <v>7.659198175E+16</v>
       </c>
       <c r="F14">
-        <v>101749.338</v>
+        <v>102472.848</v>
       </c>
       <c r="G14">
-        <v>122.374085</v>
+        <v>112.73258</v>
       </c>
       <c r="H14">
-        <v>104.117558</v>
+        <v>88.67249200000001</v>
       </c>
       <c r="I14">
-        <v>3.0571443</v>
+        <v>2.824631</v>
       </c>
       <c r="J14">
-        <v>163.02185</v>
+        <v>161.83235</v>
       </c>
       <c r="K14">
-        <v>97.26479600000002</v>
+        <v>92.32836</v>
       </c>
       <c r="L14">
-        <v>679.5418699999999</v>
+        <v>608.5563100000002</v>
       </c>
       <c r="M14">
         <v>2073.373</v>
       </c>
       <c r="N14">
-        <v>971.2873900000002</v>
+        <v>674.5365200000001</v>
       </c>
       <c r="O14">
-        <v>15257617</v>
+        <v>12001323.8</v>
       </c>
       <c r="P14">
-        <v>13178608.2</v>
+        <v>10937070</v>
       </c>
       <c r="Q14">
-        <v>420582.96</v>
+        <v>403874.12</v>
       </c>
       <c r="R14">
-        <v>886926.5</v>
+        <v>806677.05</v>
       </c>
       <c r="S14">
-        <v>1000.75866</v>
+        <v>926.8163900000002</v>
       </c>
       <c r="T14">
-        <v>364.44744</v>
+        <v>362.9141599999999</v>
       </c>
       <c r="U14">
-        <v>946312.39</v>
+        <v>763068.8699999999</v>
       </c>
       <c r="V14">
-        <v>3208129.2</v>
+        <v>2568815</v>
       </c>
       <c r="W14">
-        <v>233.45341</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X14">
-        <v>290.79679</v>
+        <v>257.30755</v>
       </c>
       <c r="Y14">
-        <v>138.059</v>
+        <v>137.92548</v>
       </c>
       <c r="Z14">
-        <v>448.4875700000001</v>
+        <v>431.4908600000001</v>
       </c>
       <c r="AA14">
-        <v>582.3182499999999</v>
+        <v>487.85666</v>
       </c>
       <c r="AB14">
-        <v>417.4791099999999</v>
+        <v>412.1944500000001</v>
       </c>
       <c r="AC14">
-        <v>457.4340000000001</v>
+        <v>435.8708300000001</v>
       </c>
       <c r="AD14">
-        <v>534.4594</v>
+        <v>529.1650100000001</v>
       </c>
       <c r="AE14">
-        <v>456.3332</v>
+        <v>455.38336</v>
       </c>
       <c r="AF14">
-        <v>596.3193600000001</v>
+        <v>596.3608600000001</v>
       </c>
       <c r="AG14">
-        <v>1562346.35</v>
+        <v>1436649.99</v>
       </c>
     </row>
     <row r="15" spans="1:33">
@@ -1895,94 +1895,94 @@
         <v>30</v>
       </c>
       <c r="D15">
-        <v>53970570</v>
+        <v>47581786</v>
       </c>
       <c r="E15">
-        <v>3.2948728047E+17</v>
+        <v>7.659198175E+16</v>
       </c>
       <c r="F15">
-        <v>101749.338</v>
+        <v>101210.017</v>
       </c>
       <c r="G15">
-        <v>122.374085</v>
+        <v>112.73258</v>
       </c>
       <c r="H15">
-        <v>104.117558</v>
+        <v>88.67249200000001</v>
       </c>
       <c r="I15">
-        <v>3.0571443</v>
+        <v>2.824631</v>
       </c>
       <c r="J15">
-        <v>163.02185</v>
+        <v>161.83235</v>
       </c>
       <c r="K15">
-        <v>97.26479600000002</v>
+        <v>92.32836</v>
       </c>
       <c r="L15">
-        <v>679.5418699999999</v>
+        <v>605.3372400000001</v>
       </c>
       <c r="M15">
         <v>2073.373</v>
       </c>
       <c r="N15">
-        <v>971.2873900000002</v>
+        <v>674.1830200000001</v>
       </c>
       <c r="O15">
-        <v>15257617</v>
+        <v>12001323.8</v>
       </c>
       <c r="P15">
-        <v>13178608.2</v>
+        <v>10937070</v>
       </c>
       <c r="Q15">
-        <v>420582.96</v>
+        <v>366902.53</v>
       </c>
       <c r="R15">
-        <v>886926.5</v>
+        <v>806677.05</v>
       </c>
       <c r="S15">
-        <v>1000.75866</v>
+        <v>926.8163900000002</v>
       </c>
       <c r="T15">
-        <v>364.44744</v>
+        <v>362.9141599999999</v>
       </c>
       <c r="U15">
-        <v>946312.39</v>
+        <v>750962.3699999999</v>
       </c>
       <c r="V15">
-        <v>3208129.2</v>
+        <v>2568815</v>
       </c>
       <c r="W15">
-        <v>233.45341</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X15">
-        <v>290.79679</v>
+        <v>242.36251</v>
       </c>
       <c r="Y15">
-        <v>138.059</v>
+        <v>137.92548</v>
       </c>
       <c r="Z15">
-        <v>448.4875700000001</v>
+        <v>431.4088300000001</v>
       </c>
       <c r="AA15">
-        <v>582.3182499999999</v>
+        <v>487.85666</v>
       </c>
       <c r="AB15">
-        <v>417.4791099999999</v>
+        <v>412.1944500000001</v>
       </c>
       <c r="AC15">
-        <v>457.4340000000001</v>
+        <v>435.8708300000001</v>
       </c>
       <c r="AD15">
-        <v>534.4594</v>
+        <v>529.1650100000001</v>
       </c>
       <c r="AE15">
-        <v>456.3332</v>
+        <v>455.38336</v>
       </c>
       <c r="AF15">
-        <v>596.3193600000001</v>
+        <v>596.3608600000001</v>
       </c>
       <c r="AG15">
-        <v>1562346.35</v>
+        <v>1430768.39</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -1996,94 +1996,94 @@
         <v>30</v>
       </c>
       <c r="D16">
-        <v>53970570</v>
+        <v>47581786</v>
       </c>
       <c r="E16">
-        <v>3.2948728047E+17</v>
+        <v>7.659198175E+16</v>
       </c>
       <c r="F16">
-        <v>99329.14400000001</v>
+        <v>98410.14599999999</v>
       </c>
       <c r="G16">
-        <v>122.374085</v>
+        <v>112.73258</v>
       </c>
       <c r="H16">
-        <v>104.117558</v>
+        <v>88.67249200000001</v>
       </c>
       <c r="I16">
-        <v>3.0571443</v>
+        <v>2.824631</v>
       </c>
       <c r="J16">
-        <v>163.02185</v>
+        <v>161.83235</v>
       </c>
       <c r="K16">
-        <v>97.26479600000002</v>
+        <v>92.32836</v>
       </c>
       <c r="L16">
-        <v>679.5418699999999</v>
+        <v>605.3372400000001</v>
       </c>
       <c r="M16">
         <v>2073.373</v>
       </c>
       <c r="N16">
-        <v>971.2873900000002</v>
+        <v>674.1830200000001</v>
       </c>
       <c r="O16">
-        <v>15257617</v>
+        <v>12001323.8</v>
       </c>
       <c r="P16">
-        <v>13178608.2</v>
+        <v>10937070</v>
       </c>
       <c r="Q16">
-        <v>420582.96</v>
+        <v>341142.92</v>
       </c>
       <c r="R16">
-        <v>886926.5</v>
+        <v>806677.05</v>
       </c>
       <c r="S16">
-        <v>1000.75866</v>
+        <v>926.8163900000002</v>
       </c>
       <c r="T16">
-        <v>364.44744</v>
+        <v>362.9141599999999</v>
       </c>
       <c r="U16">
-        <v>946312.39</v>
+        <v>671618.5699999999</v>
       </c>
       <c r="V16">
-        <v>3208129.2</v>
+        <v>2568815</v>
       </c>
       <c r="W16">
-        <v>233.45341</v>
+        <v>238.2233000000001</v>
       </c>
       <c r="X16">
-        <v>290.79679</v>
+        <v>235.40831</v>
       </c>
       <c r="Y16">
-        <v>138.059</v>
+        <v>137.92548</v>
       </c>
       <c r="Z16">
-        <v>448.4875700000001</v>
+        <v>431.4088300000001</v>
       </c>
       <c r="AA16">
-        <v>582.3182499999999</v>
+        <v>487.85666</v>
       </c>
       <c r="AB16">
-        <v>417.4791099999999</v>
+        <v>412.1944500000001</v>
       </c>
       <c r="AC16">
-        <v>457.4340000000001</v>
+        <v>435.8708300000001</v>
       </c>
       <c r="AD16">
-        <v>534.4594</v>
+        <v>529.1650100000001</v>
       </c>
       <c r="AE16">
-        <v>456.3332</v>
+        <v>455.38336</v>
       </c>
       <c r="AF16">
-        <v>596.3193600000001</v>
+        <v>596.3608600000001</v>
       </c>
       <c r="AG16">
-        <v>1562346.35</v>
+        <v>1430768.39</v>
       </c>
     </row>
   </sheetData>
